--- a/data/fact_data/parbhani/Parbhani_Sec_Nov_19.xlsx
+++ b/data/fact_data/parbhani/Parbhani_Sec_Nov_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/parbhani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C2B987-3D2B-024B-A2E1-542E0E81AB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80563BD1-804E-3941-B60C-A36422613EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Gonablok 200mg 3*10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PRODUCT</t>
   </si>
   <si>
     <t>Myospaz D          5*10's</t>
@@ -290,10 +287,13 @@
     <t>Total_Price</t>
   </si>
   <si>
-    <t>shrei Laxmi venketesh</t>
+    <t>Nov</t>
   </si>
   <si>
-    <t>Nov</t>
+    <t>Shri Laxmi Venkatesh</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
@@ -1874,9 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A366A464-7A6E-AD4A-8397-F3201310EB20}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -1885,31 +1883,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1930,13 +1928,13 @@
         <v>135</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -1958,13 +1956,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -1988,13 +1986,13 @@
         <v>2002</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -2018,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -2048,13 +2046,13 @@
         <v>130</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -2078,13 +2076,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -2108,13 +2106,13 @@
         <v>3080</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -2138,13 +2136,13 @@
         <v>4617</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -2152,7 +2150,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2164,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -2178,7 +2176,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2190,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -2220,13 +2218,13 @@
         <v>892</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -2250,13 +2248,13 @@
         <v>12322</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -2280,13 +2278,13 @@
         <v>6448</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -2294,7 +2292,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -2310,13 +2308,13 @@
         <v>49</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -2324,7 +2322,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>13</v>
@@ -2337,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -2351,7 +2349,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>100</v>
@@ -2367,13 +2365,13 @@
         <v>7000</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -2381,7 +2379,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>180</v>
@@ -2397,13 +2395,13 @@
         <v>8820</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -2411,7 +2409,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2423,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -2437,7 +2435,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -2453,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -2467,7 +2465,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
@@ -2483,13 +2481,13 @@
         <v>2476</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -2497,7 +2495,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2506,13 +2504,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -2536,13 +2534,13 @@
         <v>12760</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -2550,7 +2548,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -2566,13 +2564,13 @@
         <v>68</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -2596,13 +2594,13 @@
         <v>2400</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -2626,13 +2624,13 @@
         <v>4800</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -2640,7 +2638,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -2656,13 +2654,13 @@
         <v>830</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -2670,7 +2668,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -2686,13 +2684,13 @@
         <v>430</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -2700,7 +2698,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -2716,13 +2714,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -2730,7 +2728,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>5</v>
@@ -2746,13 +2744,13 @@
         <v>1345</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -2760,7 +2758,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -2776,13 +2774,13 @@
         <v>633</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -2790,7 +2788,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -2806,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -2820,7 +2818,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -2836,13 +2834,13 @@
         <v>865</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -2866,13 +2864,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -2880,7 +2878,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -2893,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -2919,13 +2917,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -2949,13 +2947,13 @@
         <v>2734</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -2979,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -2993,7 +2991,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -3009,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -3039,13 +3037,13 @@
         <v>1287</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -3069,13 +3067,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -3083,7 +3081,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -3099,13 +3097,13 @@
         <v>1270</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -3113,7 +3111,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -3129,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -3143,7 +3141,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -3159,13 +3157,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -3173,7 +3171,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -3186,13 +3184,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -3200,7 +3198,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3209,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -3235,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -3265,13 +3263,13 @@
         <v>1413</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -3295,13 +3293,13 @@
         <v>446</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -3309,7 +3307,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -3322,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -3336,7 +3334,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3348,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -3362,7 +3360,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>4</v>
@@ -3376,13 +3374,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -3390,7 +3388,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -3404,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -3418,7 +3416,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -3432,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -3446,7 +3444,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3458,13 +3456,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -3472,7 +3470,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>4</v>
@@ -3486,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -3500,7 +3498,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3512,13 +3510,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -3526,7 +3524,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -3542,13 +3540,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -3556,7 +3554,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -3572,13 +3570,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -3586,7 +3584,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
@@ -3602,13 +3600,13 @@
         <v>450</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -3616,7 +3614,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -3632,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -3646,7 +3644,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -3658,13 +3656,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -3672,7 +3670,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3680,13 +3678,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -3694,7 +3692,7 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -3706,13 +3704,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -3720,7 +3718,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -3732,13 +3730,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -3746,7 +3744,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -3755,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -3769,7 +3767,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3777,13 +3775,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -3791,7 +3789,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>4</v>
@@ -3803,13 +3801,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -3817,7 +3815,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3825,13 +3823,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -3839,7 +3837,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>8</v>
@@ -3851,13 +3849,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -3865,7 +3863,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>9</v>
@@ -3874,13 +3872,13 @@
         <v>12</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -3900,9 +3898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC2B61-4217-A44E-B170-F7E9B5E915E9}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3912,31 +3908,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3957,13 +3953,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -3987,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -4017,13 +4013,13 @@
         <v>6006</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -4043,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -4069,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -4095,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -4125,13 +4121,13 @@
         <v>88</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -4155,13 +4151,13 @@
         <v>2679</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -4169,7 +4165,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4181,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -4195,7 +4191,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4207,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -4233,13 +4229,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -4263,13 +4259,13 @@
         <v>5917</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -4289,13 +4285,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -4303,7 +4299,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4315,13 +4311,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -4329,7 +4325,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4338,13 +4334,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -4352,7 +4348,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>61</v>
@@ -4368,13 +4364,13 @@
         <v>6230</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -4382,7 +4378,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>94</v>
@@ -4398,13 +4394,13 @@
         <v>1666</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -4412,7 +4408,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4424,13 +4420,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -4438,7 +4434,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4450,13 +4446,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -4464,7 +4460,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4476,13 +4472,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -4490,7 +4486,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4499,13 +4495,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -4529,13 +4525,13 @@
         <v>1914</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -4543,7 +4539,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4559,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -4589,13 +4585,13 @@
         <v>960</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -4619,13 +4615,13 @@
         <v>3840</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -4633,7 +4629,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4645,13 +4641,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -4659,7 +4655,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4675,13 +4671,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -4689,7 +4685,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -4703,13 +4699,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -4717,7 +4713,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -4733,13 +4729,13 @@
         <v>807</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -4747,7 +4743,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4763,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -4777,7 +4773,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4793,13 +4789,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -4807,7 +4803,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4823,13 +4819,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -4853,13 +4849,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -4867,7 +4863,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -4880,13 +4876,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -4906,13 +4902,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -4936,13 +4932,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -4962,13 +4958,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -4976,7 +4972,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4988,13 +4984,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -5014,13 +5010,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -5040,13 +5036,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -5054,7 +5050,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5066,13 +5062,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -5080,7 +5076,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5096,13 +5092,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -5110,7 +5106,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5126,13 +5122,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -5140,7 +5136,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -5153,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -5167,7 +5163,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5176,13 +5172,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -5202,13 +5198,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -5228,13 +5224,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -5254,13 +5250,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -5268,7 +5264,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -5281,13 +5277,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -5295,7 +5291,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5307,13 +5303,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -5321,7 +5317,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -5335,13 +5331,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -5349,7 +5345,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5361,13 +5357,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -5375,7 +5371,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5385,13 +5381,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -5399,7 +5395,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5411,13 +5407,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -5425,7 +5421,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5435,13 +5431,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -5449,7 +5445,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5461,13 +5457,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -5475,7 +5471,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5487,13 +5483,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -5501,7 +5497,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5513,13 +5509,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -5527,7 +5523,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5539,13 +5535,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -5553,7 +5549,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5565,13 +5561,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -5579,7 +5575,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5587,13 +5583,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -5601,7 +5597,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5609,13 +5605,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -5623,7 +5619,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5631,13 +5627,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -5645,7 +5641,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5653,13 +5649,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -5667,18 +5663,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -5686,7 +5682,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5694,13 +5690,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -5708,7 +5704,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>14</v>
@@ -5720,13 +5716,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -5734,7 +5730,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5742,13 +5738,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -5756,7 +5752,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -5768,13 +5764,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -5782,7 +5778,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -5791,13 +5787,13 @@
         <v>3</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -5817,9 +5813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803B3AD-3034-1048-B0AB-2AA2336E3FB4}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5829,31 +5823,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5870,13 +5864,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -5896,13 +5890,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -5926,13 +5920,13 @@
         <v>6097</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -5952,13 +5946,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -5978,13 +5972,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -6004,13 +5998,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -6034,13 +6028,13 @@
         <v>352</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -6064,13 +6058,13 @@
         <v>798</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -6078,7 +6072,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6094,13 +6088,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -6108,7 +6102,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6124,13 +6118,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -6150,13 +6144,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -6180,13 +6174,13 @@
         <v>8845</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -6210,13 +6204,13 @@
         <v>4992</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -6224,7 +6218,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -6240,13 +6234,13 @@
         <v>147</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -6254,7 +6248,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -6267,13 +6261,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -6281,7 +6275,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>248</v>
@@ -6297,13 +6291,13 @@
         <v>11270</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -6311,7 +6305,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>234</v>
@@ -6327,13 +6321,13 @@
         <v>3381</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -6341,7 +6335,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6357,13 +6351,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -6371,7 +6365,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>7</v>
@@ -6387,13 +6381,13 @@
         <v>25137</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -6401,7 +6395,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
@@ -6417,13 +6411,13 @@
         <v>619</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -6431,7 +6425,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6440,13 +6434,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -6470,13 +6464,13 @@
         <v>4466</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -6484,7 +6478,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -6500,13 +6494,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -6530,13 +6524,13 @@
         <v>480</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -6560,13 +6554,13 @@
         <v>2400</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -6574,7 +6568,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
@@ -6590,13 +6584,13 @@
         <v>2490</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -6604,7 +6598,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -6620,13 +6614,13 @@
         <v>1720</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -6634,7 +6628,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -6650,13 +6644,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -6664,7 +6658,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -6680,13 +6674,13 @@
         <v>1345</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -6694,7 +6688,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -6710,13 +6704,13 @@
         <v>1266</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -6724,7 +6718,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -6740,13 +6734,13 @@
         <v>789</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -6754,7 +6748,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>2</v>
@@ -6770,13 +6764,13 @@
         <v>865</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -6800,13 +6794,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -6814,7 +6808,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -6827,13 +6821,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -6853,13 +6847,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -6883,13 +6877,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -6913,13 +6907,13 @@
         <v>955</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -6927,7 +6921,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -6943,13 +6937,13 @@
         <v>504</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -6973,13 +6967,13 @@
         <v>2574</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -7003,13 +6997,13 @@
         <v>2716</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -7017,7 +7011,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -7033,13 +7027,13 @@
         <v>1270</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -7047,7 +7041,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -7063,13 +7057,13 @@
         <v>4736</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -7077,7 +7071,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -7093,13 +7087,13 @@
         <v>755</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -7107,7 +7101,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -7120,13 +7114,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -7134,7 +7128,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -7143,13 +7137,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -7169,13 +7163,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -7199,13 +7193,13 @@
         <v>314</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -7229,13 +7223,13 @@
         <v>892</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -7243,7 +7237,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -7256,13 +7250,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -7270,7 +7264,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -7282,13 +7276,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -7296,7 +7290,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -7310,13 +7304,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -7324,7 +7318,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -7336,13 +7330,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -7350,7 +7344,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>3</v>
@@ -7364,13 +7358,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -7378,7 +7372,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -7390,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -7404,7 +7398,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -7418,13 +7412,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -7432,7 +7426,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -7444,13 +7438,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -7458,7 +7452,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -7474,13 +7468,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -7488,7 +7482,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -7504,13 +7498,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -7518,7 +7512,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -7534,13 +7528,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -7548,7 +7542,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7564,13 +7558,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -7578,7 +7572,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -7590,13 +7584,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -7604,7 +7598,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7612,13 +7606,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -7626,7 +7620,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7638,13 +7632,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -7652,7 +7646,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7664,13 +7658,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -7678,7 +7672,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -7687,13 +7681,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -7701,7 +7695,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7709,13 +7703,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -7723,7 +7717,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
@@ -7735,13 +7729,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -7749,7 +7743,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -7761,13 +7755,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -7775,7 +7769,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>12</v>
@@ -7787,13 +7781,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -7801,7 +7795,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -7810,13 +7804,13 @@
         <v>6</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -7836,9 +7830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81450CD-4BCC-3B48-951B-DD26CC02B66F}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -7847,31 +7839,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7888,13 +7880,13 @@
         <v>405</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -7914,13 +7906,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -7944,13 +7936,13 @@
         <v>3458</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -7972,13 +7964,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -8002,13 +7994,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -8028,13 +8020,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -8058,13 +8050,13 @@
         <v>264</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -8088,13 +8080,13 @@
         <v>969</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -8102,7 +8094,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8114,13 +8106,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -8128,7 +8120,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8140,13 +8132,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -8170,13 +8162,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -8200,13 +8192,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -8230,13 +8222,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -8244,7 +8236,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -8260,13 +8252,13 @@
         <v>98</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -8274,7 +8266,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -8287,13 +8279,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -8301,7 +8293,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>264</v>
@@ -8317,13 +8309,13 @@
         <v>1470</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -8331,7 +8323,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>253</v>
@@ -8347,13 +8339,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -8361,7 +8353,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8373,13 +8365,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -8387,7 +8379,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>14</v>
@@ -8403,13 +8395,13 @@
         <v>3591</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -8417,7 +8409,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -8433,13 +8425,13 @@
         <v>3095</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -8447,7 +8439,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8456,13 +8448,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -8486,13 +8478,13 @@
         <v>638</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -8500,7 +8492,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -8516,13 +8508,13 @@
         <v>68</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -8546,13 +8538,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -8576,13 +8568,13 @@
         <v>480</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -8590,7 +8582,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>6</v>
@@ -8606,13 +8598,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -8620,7 +8612,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -8636,13 +8628,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -8650,7 +8642,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -8666,13 +8658,13 @@
         <v>2880</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -8680,7 +8672,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -8696,13 +8688,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -8710,7 +8702,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>4</v>
@@ -8726,13 +8718,13 @@
         <v>633</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -8740,7 +8732,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>6</v>
@@ -8756,13 +8748,13 @@
         <v>3945</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -8770,7 +8762,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>5</v>
@@ -8786,13 +8778,13 @@
         <v>865</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -8816,13 +8808,13 @@
         <v>1726</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -8830,7 +8822,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -8843,13 +8835,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -8869,13 +8861,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -8899,13 +8891,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -8929,13 +8921,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -8943,7 +8935,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -8959,13 +8951,13 @@
         <v>336</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -8989,13 +8981,13 @@
         <v>3861</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -9017,13 +9009,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -9031,7 +9023,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -9047,13 +9039,13 @@
         <v>1270</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -9061,7 +9053,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
@@ -9077,13 +9069,13 @@
         <v>3552</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -9091,7 +9083,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -9107,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -9121,7 +9113,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
@@ -9134,13 +9126,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -9148,7 +9140,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -9157,13 +9149,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -9183,13 +9175,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -9213,13 +9205,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -9243,13 +9235,13 @@
         <v>223</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -9257,7 +9249,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -9270,13 +9262,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -9284,7 +9276,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -9296,13 +9288,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -9310,7 +9302,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>5</v>
@@ -9324,13 +9316,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -9338,7 +9330,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -9350,13 +9342,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -9364,7 +9356,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>50</v>
@@ -9378,13 +9370,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -9392,7 +9384,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -9404,13 +9396,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -9418,7 +9410,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -9432,13 +9424,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -9446,7 +9438,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9458,13 +9450,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -9472,7 +9464,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9484,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -9498,7 +9490,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9510,13 +9502,13 @@
         <v>896</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -9524,7 +9516,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9536,13 +9528,13 @@
         <v>2475</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -9550,7 +9542,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -9562,13 +9554,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -9576,7 +9568,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9584,13 +9576,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -9598,7 +9590,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9606,13 +9598,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -9620,7 +9612,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9628,13 +9620,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -9642,7 +9634,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9650,13 +9642,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -9664,18 +9656,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -9683,7 +9675,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -9691,13 +9683,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -9705,7 +9697,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>9</v>
@@ -9717,13 +9709,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -9731,7 +9723,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -9739,13 +9731,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -9753,7 +9745,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>20</v>
@@ -9765,13 +9757,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -9779,7 +9771,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>5</v>
@@ -9788,13 +9780,13 @@
         <v>9</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -9814,9 +9806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E5807C-23FC-5B42-AF19-B80F265C4F84}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -9826,31 +9816,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9870,10 +9860,10 @@
         <v>84</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -9896,10 +9886,10 @@
         <v>84</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -9926,10 +9916,10 @@
         <v>84</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -9952,10 +9942,10 @@
         <v>84</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -9978,10 +9968,10 @@
         <v>84</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -10004,10 +9994,10 @@
         <v>84</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -10030,10 +10020,10 @@
         <v>84</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -10056,10 +10046,10 @@
         <v>84</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -10067,7 +10057,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10082,10 +10072,10 @@
         <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -10093,7 +10083,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10108,10 +10098,10 @@
         <v>84</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -10134,10 +10124,10 @@
         <v>84</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -10164,10 +10154,10 @@
         <v>84</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -10190,10 +10180,10 @@
         <v>84</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -10201,7 +10191,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10216,10 +10206,10 @@
         <v>84</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -10227,7 +10217,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10239,10 +10229,10 @@
         <v>84</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -10250,7 +10240,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -10269,10 +10259,10 @@
         <v>84</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -10280,7 +10270,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10295,10 +10285,10 @@
         <v>84</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -10306,7 +10296,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10321,10 +10311,10 @@
         <v>84</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -10332,7 +10322,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10347,10 +10337,10 @@
         <v>84</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -10358,7 +10348,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10373,10 +10363,10 @@
         <v>84</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -10384,7 +10374,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10396,10 +10386,10 @@
         <v>84</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -10424,10 +10414,10 @@
         <v>84</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -10435,7 +10425,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -10454,10 +10444,10 @@
         <v>84</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -10484,10 +10474,10 @@
         <v>84</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -10514,10 +10504,10 @@
         <v>84</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -10525,7 +10515,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10540,10 +10530,10 @@
         <v>84</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -10551,7 +10541,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10566,10 +10556,10 @@
         <v>84</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -10577,7 +10567,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10592,10 +10582,10 @@
         <v>84</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -10603,7 +10593,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10618,10 +10608,10 @@
         <v>84</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -10629,7 +10619,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10644,10 +10634,10 @@
         <v>84</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -10655,7 +10645,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10670,10 +10660,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -10681,7 +10671,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10696,10 +10686,10 @@
         <v>84</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -10722,10 +10712,10 @@
         <v>84</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -10733,7 +10723,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10745,10 +10735,10 @@
         <v>84</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -10771,10 +10761,10 @@
         <v>84</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -10797,10 +10787,10 @@
         <v>84</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -10823,10 +10813,10 @@
         <v>84</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -10834,7 +10824,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -10853,10 +10843,10 @@
         <v>84</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -10879,10 +10869,10 @@
         <v>84</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -10905,10 +10895,10 @@
         <v>84</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -10916,7 +10906,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -10931,10 +10921,10 @@
         <v>84</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -10942,7 +10932,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -10957,10 +10947,10 @@
         <v>84</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -10968,7 +10958,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -10983,10 +10973,10 @@
         <v>84</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -10994,7 +10984,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -11006,10 +10996,10 @@
         <v>84</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -11017,7 +11007,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -11029,10 +11019,10 @@
         <v>84</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -11055,10 +11045,10 @@
         <v>84</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -11081,10 +11071,10 @@
         <v>84</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -11107,10 +11097,10 @@
         <v>84</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -11118,7 +11108,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -11130,10 +11120,10 @@
         <v>84</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -11141,7 +11131,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -11156,10 +11146,10 @@
         <v>84</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -11167,7 +11157,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -11180,10 +11170,10 @@
         <v>84</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -11191,7 +11181,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -11206,10 +11196,10 @@
         <v>84</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -11217,7 +11207,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11230,10 +11220,10 @@
         <v>84</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -11241,7 +11231,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -11256,10 +11246,10 @@
         <v>84</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -11267,7 +11257,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11280,10 +11270,10 @@
         <v>84</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -11291,7 +11281,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -11306,10 +11296,10 @@
         <v>84</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -11317,7 +11307,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -11332,10 +11322,10 @@
         <v>84</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -11343,7 +11333,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -11358,10 +11348,10 @@
         <v>84</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -11369,7 +11359,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -11384,10 +11374,10 @@
         <v>84</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -11395,7 +11385,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -11410,10 +11400,10 @@
         <v>84</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -11421,7 +11411,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -11432,10 +11422,10 @@
         <v>84</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -11443,7 +11433,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -11454,10 +11444,10 @@
         <v>84</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -11465,7 +11455,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -11476,10 +11466,10 @@
         <v>84</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -11487,7 +11477,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -11498,10 +11488,10 @@
         <v>84</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -11509,7 +11499,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -11517,10 +11507,10 @@
         <v>84</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -11528,7 +11518,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -11539,10 +11529,10 @@
         <v>84</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -11550,7 +11540,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -11561,10 +11551,10 @@
         <v>84</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -11572,7 +11562,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -11583,10 +11573,10 @@
         <v>84</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -11594,7 +11584,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -11605,10 +11595,10 @@
         <v>84</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -11616,7 +11606,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>0</v>
@@ -11628,10 +11618,10 @@
         <v>84</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
